--- a/zssessentials/src/main/webapp/WEB-INF/books/book1.xlsx
+++ b/zssessentials/src/main/webapp/WEB-INF/books/book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="17055" windowHeight="8835"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="17040" windowHeight="8835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Dennis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>book1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;--[book2.xlsx]SheetX'!C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;--[book2.xlsx]SheetX'!C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;--[book2.xlsx]SheetX'!C3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;--[book2.xlsx]SheetX'!C4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;---[book2.xlsx]SheetY'!D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;---[book2.xlsx]SheetY'!D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;---[book2.xlsx]SheetY'!D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;---[book2.xlsx]SheetY'!D1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,8 +122,8 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="SheetX"/>
+      <sheetName val="SheetY"/>
       <sheetName val="Sheet3"/>
     </sheetNames>
     <sheetDataSet>
@@ -430,69 +462,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D4"/>
+  <dimension ref="B2:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" t="s">
+    <row r="2" spans="2:7">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="str">
-        <f>[1]Sheet1!C1</f>
+      <c r="D2" t="str">
+        <f>[1]SheetX!C1</f>
         <v>book2</v>
       </c>
-      <c r="D1" t="str">
-        <f>[1]Sheet2!D1</f>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="str">
+        <f>[1]SheetY!D1</f>
         <v>book2-Sheet2</v>
       </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="2:4">
-      <c r="B2" t="s">
+    <row r="3" spans="2:7">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="str">
-        <f>[1]Sheet1!C2</f>
+      <c r="D3" t="str">
+        <f>[1]SheetX!C2</f>
         <v>Dennis</v>
       </c>
-      <c r="D2" t="str">
-        <f>[1]Sheet2!D2</f>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="str">
+        <f>[1]SheetY!D2</f>
         <v>XYZ</v>
       </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="2:4">
-      <c r="B3">
+    <row r="4" spans="2:7">
+      <c r="B4">
         <v>38</v>
       </c>
-      <c r="C3">
-        <f>[1]Sheet1!C3</f>
+      <c r="D4">
+        <f>[1]SheetX!C3</f>
         <v>38</v>
       </c>
-      <c r="D3">
-        <f>[1]Sheet2!D3</f>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <f>[1]SheetY!D3</f>
         <v>99</v>
       </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="1">
+    <row r="5" spans="2:7">
+      <c r="B5" s="1">
         <v>27439</v>
       </c>
-      <c r="C4" s="1">
-        <f>[1]Sheet1!C4</f>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <f>[1]SheetX!C4</f>
         <v>27439</v>
       </c>
-      <c r="D4" s="1">
-        <f>[1]Sheet2!D4</f>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <f>[1]SheetY!D4</f>
         <v>41399</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/zssessentials/src/main/webapp/WEB-INF/books/book1.xlsx
+++ b/zssessentials/src/main/webapp/WEB-INF/books/book1.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="17040" windowHeight="8835"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="17040" windowHeight="8835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Dennis</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +58,18 @@
   </si>
   <si>
     <t>&lt;---[book2.xlsx]SheetY'!D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -124,7 +138,7 @@
     <sheetNames>
       <sheetName val="SheetX"/>
       <sheetName val="SheetY"/>
-      <sheetName val="Sheet3"/>
+      <sheetName val="SheetZ"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -462,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -478,7 +492,12 @@
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -497,7 +516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="1:7">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -516,7 +535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="1:7">
       <c r="B4">
         <v>38</v>
       </c>
@@ -535,7 +554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="1:7">
       <c r="B5" s="1">
         <v>27439</v>
       </c>
@@ -553,6 +572,48 @@
       </c>
       <c r="G5" t="s">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
